--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2AA928-C423-6740-8EB6-E568CB81593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15826FAB-F69A-3646-BA30-C8EFE02C2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19140" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="1320" yWindow="1000" windowWidth="34560" windowHeight="19140" activeTab="2" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Covariates" sheetId="3" r:id="rId1"/>
     <sheet name="Table 2 Priors" sheetId="4" r:id="rId2"/>
-    <sheet name="Supplement covariate data links" sheetId="5" r:id="rId3"/>
+    <sheet name="Supplement Table 1" sheetId="5" r:id="rId3"/>
     <sheet name="Old covariate table with tested" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>Stage</t>
   </si>
@@ -219,45 +219,18 @@
     <t>Table 1: Table of covariates used in the life cycle model, associated stage, lag from the brood year, hypothesis and citations. See supplement for links to all publically available covariate data sources</t>
   </si>
   <si>
-    <t>ADFG ASL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://nwis.waterdata.usgs.gov/nwis/inventory/?site_no=15565447</t>
   </si>
   <si>
-    <t xml:space="preserve">YUKON DISCHARGE </t>
-  </si>
-  <si>
-    <t>pollock</t>
-  </si>
-  <si>
     <t>https://apps-afsc.fisheries.noaa.gov/Plan_Team/2023/EBSPollock.pdf</t>
   </si>
   <si>
-    <t>chum hatchery</t>
-  </si>
-  <si>
-    <t>pink harchery</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.npafc.org/statistics/ </t>
   </si>
   <si>
-    <t>NBS SST</t>
-  </si>
-  <si>
     <t>https://shinyfin.psmfc.org/</t>
   </si>
   <si>
-    <t>Aleutian SST</t>
-  </si>
-  <si>
-    <t>Fullness index</t>
-  </si>
-  <si>
-    <t>[check about publically avail??]</t>
-  </si>
-  <si>
     <t xml:space="preserve">NBS Cummulative Degree Days </t>
   </si>
   <si>
@@ -418,13 +391,31 @@
   </si>
   <si>
     <t>~Normal(-5,1)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.adfg.alaska.gov/CF_R3/external/sites/aykdbms_website/DataTypes/ASL.aspx</t>
+  </si>
+  <si>
+    <t>Yukon River Flow</t>
+  </si>
+  <si>
+    <t>ADFG Age Sex Length Database</t>
+  </si>
+  <si>
+    <t>Chum and Pink Hatchery Release Abundance</t>
+  </si>
+  <si>
+    <t>NBS and Aleutian SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,6 +449,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -874,10 +873,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,11 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1046,8 +1041,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3227,16 +3256,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -3244,7 +3273,7 @@
       <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -3252,205 +3281,205 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="C2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>82</v>
+      <c r="G2" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="39">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="37">
+        <v>2</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="42">
+      <c r="E9" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="G9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="38">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="40">
-        <v>2</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="46">
-        <v>1</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3473,7 +3502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+    <sheetView zoomScale="174" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3485,140 +3514,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="48"/>
+      <c r="C2" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="48"/>
+      <c r="C3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="48"/>
+      <c r="C4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
+      <c r="C5" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="C6" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D6" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="48"/>
+      <c r="C7" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="48"/>
+      <c r="C8" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="51"/>
-      <c r="C2" s="47" t="s">
+      <c r="D8" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="52" t="s">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="48"/>
+      <c r="C9" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="48"/>
+      <c r="C10" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="48"/>
+      <c r="C11" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="48"/>
+      <c r="C12" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+      <c r="C13" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="48"/>
+      <c r="C14" s="44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="51"/>
-      <c r="C3" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
-      <c r="C4" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="D14" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3629,115 +3658,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78B096-5A74-CC44-8B21-3349AED14402}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>62</v>
-      </c>
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>65</v>
-      </c>
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="64"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="64"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="64"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="64"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AF76547-F93D-6F4B-81DC-C57B8B60CEC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3778,11 +3794,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15826FAB-F69A-3646-BA30-C8EFE02C2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF07FD-C4D7-F342-9019-F6FFA3A107CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1000" windowWidth="34560" windowHeight="19140" activeTab="2" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="6960" yWindow="760" windowWidth="27600" windowHeight="19380" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 Covariates" sheetId="3" r:id="rId1"/>
-    <sheet name="Table 2 Priors" sheetId="4" r:id="rId2"/>
+    <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
+    <sheet name="Table 2 Covariates" sheetId="3" r:id="rId2"/>
     <sheet name="Supplement Table 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Old covariate table with tested" sheetId="1" r:id="rId4"/>
+    <sheet name="OLD - ignore" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
   <si>
     <t>Stage</t>
   </si>
@@ -216,9 +216,6 @@
     </r>
   </si>
   <si>
-    <t>Table 1: Table of covariates used in the life cycle model, associated stage, lag from the brood year, hypothesis and citations. See supplement for links to all publically available covariate data sources</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://nwis.waterdata.usgs.gov/nwis/inventory/?site_no=15565447</t>
   </si>
   <si>
@@ -255,39 +252,21 @@
     <t>Farley et al 2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mean  E Aleutian SST summed November - March, 2000-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">If fish enter their first winter well provisioned (fullness index is a proxy for condition), they will have higher marine productivity.  </t>
   </si>
   <si>
-    <t>Annual index, 2000-2021</t>
-  </si>
-  <si>
     <t>Greater abundances of hatchery Chum salmon compete with Yukon River Chum salmon and decrease marine productivity</t>
   </si>
   <si>
     <t>Ruggerone et al 2011</t>
   </si>
   <si>
-    <t>Annual total releases from Alaska, Japan, Korea and Russia, 2000-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mean  NBS SST summed June - August, 2000-2021</t>
-  </si>
-  <si>
-    <t>Mean size at age trend from escapement projects that were consistently surveyed 2000-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">USGS </t>
   </si>
   <si>
     <t xml:space="preserve">Yukon River (Pilot Station) Mainstem Discharge </t>
   </si>
   <si>
-    <t>Mean river discharge (m/s) from Pilot Station, May-June 2000-2021</t>
-  </si>
-  <si>
     <t>ADFG Age Sex Length database</t>
   </si>
   <si>
@@ -327,45 +306,24 @@
     <t>Carrying capacity for juvenile stage</t>
   </si>
   <si>
-    <t>~Normal(16,10)</t>
-  </si>
-  <si>
-    <t>~Normal(18,10)</t>
-  </si>
-  <si>
     <t>Carrying capacity for marine stage</t>
   </si>
   <si>
     <t>Selectivity</t>
   </si>
   <si>
-    <t>D scale</t>
-  </si>
-  <si>
     <t>Log-normal standard deviation for instantaneous fishing mortality</t>
   </si>
   <si>
     <t xml:space="preserve">Log-normal mean instantaneous fishing mortality </t>
   </si>
   <si>
-    <t>~gamma()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G/dir alpha ?? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Covariate coefficient for juvenile and marine covariates </t>
   </si>
   <si>
-    <t xml:space="preserve">t+2, its both t+1 and t+2 because it spans jan 1… how to write this? </t>
-  </si>
-  <si>
     <t>Brood Year Offset</t>
   </si>
   <si>
-    <t>unsure if I even want to have this in here because its not really expected because diets don’t overlap</t>
-  </si>
-  <si>
     <t>Higher mainstem river discharge has a negative relationship with brood year productivity as it makes foraging more difficult.</t>
   </si>
   <si>
@@ -384,12 +342,6 @@
     <t>Model Stage Implemented</t>
   </si>
   <si>
-    <t>2000-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q - relates estimated to observed abundances in juvenile survey </t>
-  </si>
-  <si>
     <t>~Normal(-5,1)</t>
   </si>
   <si>
@@ -409,13 +361,88 @@
   </si>
   <si>
     <t>NBS and Aleutian SST</t>
+  </si>
+  <si>
+    <t>Greater abundances of hatchery Pink salmon compete with Yukon River Chum salmon and decrease marine productivity</t>
+  </si>
+  <si>
+    <t>Increased temperature leads to increased juvenile growth.</t>
+  </si>
+  <si>
+    <t>Myers et al. 2009, Kaga et al. 2013, Farley Jr et al. 2024</t>
+  </si>
+  <si>
+    <t>Murphy et al 2021</t>
+  </si>
+  <si>
+    <t>Table 2: Table of covariates used in the life cycle model, associated stage, lag from the brood year, hypothesis and citations. See supplement for links to all publically available covariate data sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1: Table of priors for each parameter used in the life cycle model. </t>
+  </si>
+  <si>
+    <t>~Normal(0,10)</t>
+  </si>
+  <si>
+    <t>Dispersion parameter controlling deviations from mean age composition</t>
+  </si>
+  <si>
+    <t>Constant to relate estimated juvenile abundances to observed juvenile abundances</t>
+  </si>
+  <si>
+    <t>Mean age at maturity probability vector</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Caption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S1:Links to access public data sources listed in Table 2. </t>
+  </si>
+  <si>
+    <t>Mean river discharge (m/s) from Pilot Station, May-June 2002-2022</t>
+  </si>
+  <si>
+    <t>2002-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean  NBS SST summed June - August, 2002-2022</t>
+  </si>
+  <si>
+    <t>Mean size at age trend from escapement projects that were consistently surveyed 2002-2022</t>
+  </si>
+  <si>
+    <t>Annual total releases from Alaska, Japan, Korea and Russia, 2002-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean  E Aleutian SST summed November - March, 2002-2022</t>
+  </si>
+  <si>
+    <t>Annual index, 2002-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,12 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -457,22 +478,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -872,12 +918,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -978,69 +1063,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1065,7 +1087,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,6 +1095,123 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2905,6 +3044,417 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑠=𝑚)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="106632" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636C3E1E-22F9-A912-6610-F533B111FC8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="856593" y="2455040"/>
+              <a:ext cx="106632" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑞</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636C3E1E-22F9-A912-6610-F533B111FC8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="856593" y="2455040"/>
+              <a:ext cx="106632" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8829</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="182614" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5ACA40-60FF-4EE0-2760-2C7CBE192DC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="854020" y="3437095"/>
+              <a:ext cx="182614" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5ACA40-60FF-4EE0-2760-2C7CBE192DC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="854020" y="3437095"/>
+              <a:ext cx="182614" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43794</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17224</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="128112" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CC3517-69E8-D9CA-70C3-6A2F4D270085}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868564" y="2878373"/>
+              <a:ext cx="128112" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CC3517-69E8-D9CA-70C3-6A2F4D270085}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="868564" y="2878373"/>
+              <a:ext cx="128112" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3233,11 +3783,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
+  <dimension ref="B1:D19"/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="45"/>
+    <col min="2" max="2" width="15.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="45" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="67"/>
+      <c r="C2" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="67"/>
+      <c r="C3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="67"/>
+      <c r="C4" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="67"/>
+      <c r="C5" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="67"/>
+      <c r="C6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="67"/>
+      <c r="C7" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="67"/>
+      <c r="C8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="67"/>
+      <c r="C10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="67"/>
+      <c r="C11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="67"/>
+      <c r="C12" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="67"/>
+      <c r="C14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="C19" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="164" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3254,405 +3974,252 @@
     <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="2:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="77">
+        <v>1</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="78">
+        <v>1</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="79">
+        <v>1</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="79">
+        <v>0</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="77">
+        <v>3</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="78">
+        <v>2</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="B8" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="78">
+        <v>2</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="37">
-        <v>1</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="39">
-        <v>1</v>
-      </c>
-      <c r="F3" s="39" t="s">
+      <c r="H8" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="80">
+        <v>2</v>
+      </c>
+      <c r="F9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="34">
-        <v>1</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="35">
-        <v>0</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="G9" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="37">
-        <v>2</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
-  <dimension ref="B1:D15"/>
-  <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="48"/>
-      <c r="C3" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
-      <c r="C4" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="48"/>
-      <c r="C5" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="48"/>
-      <c r="C6" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="48"/>
-      <c r="C8" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
-      <c r="C9" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
-      <c r="C10" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
-      <c r="C11" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="48"/>
-      <c r="C12" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
-      <c r="C13" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3660,95 +4227,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78B096-5A74-CC44-8B21-3349AED14402}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>111</v>
+      <c r="B1" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="69" t="s">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="64"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="64"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="64"/>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3794,11 +4365,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF07FD-C4D7-F342-9019-F6FFA3A107CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C375A-1DF9-9344-B311-3951FB26D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="760" windowWidth="27600" windowHeight="19380" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="14780" yWindow="760" windowWidth="19780" windowHeight="19380" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
     <sheet name="Table 2 Covariates" sheetId="3" r:id="rId2"/>
     <sheet name="Supplement Table 1" sheetId="5" r:id="rId3"/>
-    <sheet name="OLD - ignore" sheetId="1" r:id="rId4"/>
+    <sheet name="Supplement Table 2 " sheetId="6" r:id="rId4"/>
+    <sheet name="OLD - ignore" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>Stage</t>
   </si>
@@ -436,6 +437,27 @@
   </si>
   <si>
     <t>Annual index, 2002-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter </t>
+  </si>
+  <si>
+    <t>Parameter Description</t>
+  </si>
+  <si>
+    <t>Parameter Mean Estimate</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>R Hat</t>
+  </si>
+  <si>
+    <t>Effective Sample Size</t>
+  </si>
+  <si>
+    <t>currently fixed:</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2134,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17956</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>11385</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="100156" cy="173766"/>
@@ -2242,7 +2264,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="141256" cy="173766"/>
@@ -2558,7 +2580,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22334</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28904</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172035" cy="173702"/>
@@ -2712,352 +2734,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44231</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7006</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="284886" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD8896-0B5A-9870-9DA3-179FFD601EA8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="871921" y="1417144"/>
-              <a:ext cx="284886" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜂</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑗</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD8896-0B5A-9870-9DA3-179FFD601EA8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="871921" y="1417144"/>
-              <a:ext cx="284886" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜂_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠=𝑗)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25838</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="331053" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B5AF8D-A9A9-ED4E-BFBB-EA896709B184}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="853528" y="1608958"/>
-              <a:ext cx="331053" cy="173702"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜂</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑚</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B5AF8D-A9A9-ED4E-BFBB-EA896709B184}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="853528" y="1608958"/>
-              <a:ext cx="331053" cy="173702"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜂_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠=𝑚)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="106632" cy="173702"/>
@@ -3185,7 +2863,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>8829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="182614" cy="173702"/>
@@ -3340,7 +3018,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>43794</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>17224</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="128112" cy="173702"/>
@@ -3455,6 +3133,352 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝐷</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44231</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7006</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="284886" cy="182871"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB458A6-E310-2A4A-B504-A464DB3641CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="866428" y="1717468"/>
+              <a:ext cx="284886" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB458A6-E310-2A4A-B504-A464DB3641CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="866428" y="1717468"/>
+              <a:ext cx="284886" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠=𝑗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25838</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>198820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="331053" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D85B6-F39C-0348-AC5C-801AB8E792F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="848035" y="1909282"/>
+              <a:ext cx="331053" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D85B6-F39C-0348-AC5C-801AB8E792F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="848035" y="1909282"/>
+              <a:ext cx="331053" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠=𝑚)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3784,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3867,83 +3891,88 @@
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="67"/>
       <c r="C8" s="60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="67"/>
-      <c r="C9" s="60" t="s">
-        <v>82</v>
+      <c r="C9" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="67"/>
-      <c r="C10" s="60" t="s">
-        <v>83</v>
+      <c r="C10" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="67"/>
       <c r="C11" s="61" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="67"/>
-      <c r="C12" s="61" t="s">
-        <v>84</v>
+      <c r="C12" s="58" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="61" t="s">
-        <v>109</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
-      <c r="C14" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C18" s="63" t="s">
+    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="63" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="C19" s="64" t="s">
+    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="64" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="67"/>
+      <c r="C23" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="67"/>
+      <c r="C24" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +3985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="164" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="164" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4330,6 +4359,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D3D18-8C71-464C-A320-63E682CA5315}">
   <dimension ref="B1:I12"/>
   <sheetViews>

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C375A-1DF9-9344-B311-3951FB26D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EB2EA-2670-D549-B648-68A0B5D02811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="760" windowWidth="19780" windowHeight="19380" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="14120" yWindow="760" windowWidth="20660" windowHeight="20080" activeTab="3" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
   <si>
     <t>Stage</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Carrying capacity for marine stage</t>
   </si>
   <si>
-    <t>Selectivity</t>
-  </si>
-  <si>
     <t>Log-normal standard deviation for instantaneous fishing mortality</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Annual index, 2002-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameter </t>
-  </si>
-  <si>
     <t>Parameter Description</t>
   </si>
   <si>
@@ -458,6 +452,15 @@
   </si>
   <si>
     <t>currently fixed:</t>
+  </si>
+  <si>
+    <t>Log-normal age-specific fishing selectivity</t>
+  </si>
+  <si>
+    <t>Parameter Notation</t>
+  </si>
+  <si>
+    <t>Parameter Group</t>
   </si>
 </sst>
 </file>
@@ -3810,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3882,7 +3885,7 @@
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="67"/>
       <c r="C7" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>80</v>
@@ -3891,7 +3894,7 @@
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="67"/>
       <c r="C8" s="60" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>77</v>
@@ -3900,7 +3903,7 @@
     <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="67"/>
       <c r="C9" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="68" t="s">
         <v>77</v>
@@ -3909,7 +3912,7 @@
     <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="67"/>
       <c r="C10" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>77</v>
@@ -3918,16 +3921,16 @@
     <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="67"/>
       <c r="C11" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="67"/>
       <c r="C12" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="68" t="s">
         <v>78</v>
@@ -3936,7 +3939,7 @@
     <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69"/>
       <c r="C13" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>78</v>
@@ -3944,17 +3947,17 @@
     </row>
     <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="C17" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
@@ -3963,7 +3966,7 @@
         <v>81</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
@@ -3972,7 +3975,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3985,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="164" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4005,7 +4008,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>46</v>
@@ -4014,7 +4017,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>4</v>
@@ -4037,7 +4040,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="77">
         <v>1</v>
@@ -4046,10 +4049,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>89</v>
       </c>
       <c r="I2" s="70" t="s">
         <v>67</v>
@@ -4063,7 +4066,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="78">
         <v>1</v>
@@ -4072,10 +4075,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>58</v>
@@ -4089,7 +4092,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="79">
         <v>1</v>
@@ -4098,10 +4101,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="73" t="s">
         <v>60</v>
@@ -4115,7 +4118,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="79">
         <v>0</v>
@@ -4124,7 +4127,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>50</v>
@@ -4141,7 +4144,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="77">
         <v>3</v>
@@ -4167,7 +4170,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="78">
         <v>2</v>
@@ -4176,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>66</v>
@@ -4193,7 +4196,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="78">
         <v>2</v>
@@ -4219,7 +4222,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="80">
         <v>2</v>
@@ -4234,7 +4237,7 @@
         <v>63</v>
       </c>
       <c r="I9" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17" x14ac:dyDescent="0.2">
@@ -4244,7 +4247,7 @@
     </row>
     <row r="15" spans="2:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4271,12 +4274,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>52</v>
@@ -4284,10 +4287,10 @@
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4300,7 +4303,7 @@
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>54</v>
@@ -4308,7 +4311,7 @@
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>55</v>
@@ -4339,7 +4342,7 @@
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4360,44 +4363,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EB2EA-2670-D549-B648-68A0B5D02811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417E0854-9018-884D-A50F-129AFBDDEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="760" windowWidth="20660" windowHeight="20080" activeTab="3" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="3940" yWindow="760" windowWidth="30620" windowHeight="20340" activeTab="3" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
   <si>
     <t>Stage</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>Parameter Notation</t>
-  </si>
-  <si>
-    <t>Parameter Group</t>
   </si>
 </sst>
 </file>
@@ -3153,8 +3150,8 @@
       <xdr:rowOff>7006</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="284886" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3253,7 +3250,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3326,8 +3323,8 @@
       <xdr:rowOff>198820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331053" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3426,7 +3423,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3482,6 +3479,1922 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑠=𝑚)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>201448</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="386516" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB0689C-ED54-2546-A7EA-EA20726B5A5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="201448"/>
+              <a:ext cx="386516" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑑𝑢𝑙𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB0689C-ED54-2546-A7EA-EA20726B5A5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="201448"/>
+              <a:ext cx="386516" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎𝑑𝑢𝑙𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="450829" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72F93A-0663-F545-8F08-FAC61CCBAF48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="647700"/>
+              <a:ext cx="450829" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑡𝑢𝑟𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72F93A-0663-F545-8F08-FAC61CCBAF48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="647700"/>
+              <a:ext cx="450829" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟𝑒𝑡𝑢𝑟𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499945" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE55-8E5D-BD4B-A4B9-DC7657FE8870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="863600"/>
+              <a:ext cx="499945" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h𝑎𝑟𝑣𝑒𝑠𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE55-8E5D-BD4B-A4B9-DC7657FE8870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="863600"/>
+              <a:ext cx="499945" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℎ𝑎𝑟𝑣𝑒𝑠𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="520079" cy="182871"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB4BB82-EC19-ED4B-890D-593BD772252D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="1079500"/>
+              <a:ext cx="520079" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB4BB82-EC19-ED4B-890D-593BD772252D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="1079500"/>
+              <a:ext cx="520079" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11385</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="100156" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2295C0-730F-D64B-95D4-B824D47547DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="843456" y="1954485"/>
+              <a:ext cx="100156" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜐</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2295C0-730F-D64B-95D4-B824D47547DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="843456" y="1954485"/>
+              <a:ext cx="100156" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜐</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="141256" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E07D6-CD75-8B47-A2FD-7FAC4A1EEFAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="834700" y="2161628"/>
+              <a:ext cx="141256" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜍</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E07D6-CD75-8B47-A2FD-7FAC4A1EEFAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="834700" y="2161628"/>
+              <a:ext cx="141256" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜍_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4816</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7007</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160621" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFD511C-CB54-DA44-AA1C-0C9BF6A45A1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="830316" y="1302407"/>
+              <a:ext cx="160621" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛽</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFD511C-CB54-DA44-AA1C-0C9BF6A45A1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="830316" y="1302407"/>
+              <a:ext cx="160621" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛽_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22334</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28904</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="172035" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E3399D-5E50-AC49-A7B2-6C241897812B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="847834" y="1756104"/>
+              <a:ext cx="172035" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E3399D-5E50-AC49-A7B2-6C241897812B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="847834" y="1756104"/>
+              <a:ext cx="172035" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31823</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="106632" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B531058F-0904-F84B-8792-F39104943BD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="857323" y="2593426"/>
+              <a:ext cx="106632" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑞</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B531058F-0904-F84B-8792-F39104943BD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="857323" y="2593426"/>
+              <a:ext cx="106632" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31823</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8829</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="182614" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FACEE2-466D-C941-BD83-852139164A30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="857323" y="3031429"/>
+              <a:ext cx="182614" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FACEE2-466D-C941-BD83-852139164A30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="857323" y="3031429"/>
+              <a:ext cx="182614" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43794</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17224</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="128112" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBF2A1-131B-C44F-BFCA-5F3F1CAFEC2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="869294" y="3255724"/>
+              <a:ext cx="128112" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBF2A1-131B-C44F-BFCA-5F3F1CAFEC2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="869294" y="3255724"/>
+              <a:ext cx="128112" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="246414" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB54CD-AAA9-5343-ABB4-63631744A2A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2794000"/>
+              <a:ext cx="246414" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB54CD-AAA9-5343-ABB4-63631744A2A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2794000"/>
+              <a:ext cx="246414" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -3814,7 +5727,7 @@
   <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4363,50 +6276,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="67"/>
+      <c r="B2" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="67"/>
+      <c r="B12" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417E0854-9018-884D-A50F-129AFBDDEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4CBF1-AFDC-EF4E-A25F-21D78E804951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="760" windowWidth="30620" windowHeight="20340" activeTab="3" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>Stage</t>
   </si>
@@ -458,6 +458,21 @@
   </si>
   <si>
     <t>Parameter Notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulating properties of snow </t>
+  </si>
+  <si>
+    <t>Alaska Climate Research Center</t>
+  </si>
+  <si>
+    <t>Raymond-Yakoubian J 2009, Jallen et al 2022</t>
+  </si>
+  <si>
+    <t>Monthly Mean Snow Depth (in), summed October - December, 2002-2022</t>
+  </si>
+  <si>
+    <t>Snow Depth</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -979,12 +994,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1184,9 +1234,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,9 +1243,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1277,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3501,8 +3578,8 @@
       <xdr:rowOff>201448</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="386516" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3587,7 +3664,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3660,8 +3737,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="450829" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3746,7 +3823,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3819,8 +3896,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="499945" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3905,7 +3982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3978,8 +4055,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="520079" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4064,7 +4141,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4137,8 +4214,8 @@
       <xdr:rowOff>11385</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="100156" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4202,7 +4279,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4268,8 +4345,8 @@
       <xdr:rowOff>2628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="141256" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4354,7 +4431,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4427,8 +4504,8 @@
       <xdr:rowOff>7007</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160621" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4513,7 +4590,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4586,8 +4663,8 @@
       <xdr:rowOff>28904</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172035" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4670,7 +4747,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4742,8 +4819,8 @@
       <xdr:rowOff>2626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="106632" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4806,7 +4883,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4871,8 +4948,8 @@
       <xdr:rowOff>8829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="182614" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4955,7 +5032,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -5027,8 +5104,8 @@
       <xdr:rowOff>17224</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="128112" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5091,7 +5168,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5156,8 +5233,8 @@
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="246414" cy="176651"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5305,7 +5382,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5899,10 +5976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5919,7 +5996,7 @@
     <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
         <v>92</v>
       </c>
@@ -5945,221 +6022,251 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>112</v>
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" s="52" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="76">
+        <v>0</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="94"/>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="76">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="94"/>
+    </row>
+    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="B5" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D5" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E5" s="90">
         <v>1</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F5" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H5" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I5" s="87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
+    <row r="6" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D6" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E6" s="77">
         <v>1</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H6" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="79">
-        <v>0</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="72" t="s">
-        <v>69</v>
+    <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="B7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="75">
+        <v>3</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="77">
-        <v>3</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="78">
-        <v>2</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="76">
+        <v>2</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D9" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E9" s="76">
         <v>2</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I9" s="72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+    <row r="10" spans="1:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D10" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E10" s="78">
         <v>2</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G10" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C14" s="33" t="s">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C15" s="32" t="s">
+    <row r="16" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="C16" s="32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6278,7 +6385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
@@ -6466,11 +6573,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4CBF1-AFDC-EF4E-A25F-21D78E804951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF780B7-5BF0-4142-845B-03DBF6080234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>Stage</t>
   </si>
@@ -445,12 +445,6 @@
     <t>95% CI</t>
   </si>
   <si>
-    <t>R Hat</t>
-  </si>
-  <si>
-    <t>Effective Sample Size</t>
-  </si>
-  <si>
     <t>currently fixed:</t>
   </si>
   <si>
@@ -473,6 +467,9 @@
   </si>
   <si>
     <t>Snow Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S2: Parameter definitions, priors and parameter estimates with 95% credible intervals.  </t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,9 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1270,6 +1264,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,38 +1306,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5817,154 +5817,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="67"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="67"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="67"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="67"/>
-      <c r="C8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="67"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="67"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="67"/>
-      <c r="C12" s="58" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="60" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5978,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6023,136 +6023,136 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="76">
         <v>0</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="76">
+      <c r="C3" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="75">
         <v>0</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="94"/>
+      <c r="I3" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="75">
         <v>1</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="94"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="86">
         <v>1</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="83" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="76">
         <v>1</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="80" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="70" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6161,103 +6161,103 @@
         <v>15</v>
       </c>
       <c r="C7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="74">
+        <v>2</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="75">
+        <v>2</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E9" s="75">
         <v>3</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H9" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I9" s="71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
+    <row r="10" spans="1:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D10" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E10" s="77">
         <v>2</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I10" s="72" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="B9" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="76">
-        <v>2</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="78">
-        <v>2</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6280,7 +6280,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6383,10 +6383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6395,14 +6395,12 @@
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>119</v>
@@ -6414,121 +6412,120 @@
         <v>121</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="66"/>
+      <c r="B3" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="68" t="s">
+      <c r="E8" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="68" t="s">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="68" t="s">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="68" t="s">
+    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="68" t="s">
+    <row r="13" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>78</v>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6573,11 +6570,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF780B7-5BF0-4142-845B-03DBF6080234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853DC44-AE59-9643-91D8-17576E317F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" activeTab="1" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="13380" yWindow="760" windowWidth="21000" windowHeight="21420" activeTab="4" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
     <sheet name="Table 2 Covariates" sheetId="3" r:id="rId2"/>
     <sheet name="Supplement Table 1" sheetId="5" r:id="rId3"/>
     <sheet name="Supplement Table 2 " sheetId="6" r:id="rId4"/>
-    <sheet name="OLD - ignore" sheetId="1" r:id="rId5"/>
+    <sheet name="Supplement Table 3" sheetId="7" r:id="rId5"/>
+    <sheet name="OLD - ignore" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
   <si>
     <t>Stage</t>
   </si>
@@ -181,9 +182,6 @@
   </si>
   <si>
     <t>Covariate Name</t>
-  </si>
-  <si>
-    <t>Covariate Data Source</t>
   </si>
   <si>
     <t>Citations</t>
@@ -470,6 +468,54 @@
   </si>
   <si>
     <t xml:space="preserve">Table S2: Parameter definitions, priors and parameter estimates with 95% credible intervals.  </t>
+  </si>
+  <si>
+    <t>Related Equation</t>
+  </si>
+  <si>
+    <t>Notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Jt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunningham et al </t>
+  </si>
+  <si>
+    <t>Fleishman and Borba 2009, JTC 2023</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>return age composition</t>
+  </si>
+  <si>
+    <t>Spawner Abundance</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Ht</t>
+  </si>
+  <si>
+    <t>Return Abundance</t>
+  </si>
+  <si>
+    <t>Juvenile Abundance</t>
+  </si>
+  <si>
+    <t>Table S3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data sources and related equations in the text. </t>
   </si>
 </sst>
 </file>
@@ -552,7 +598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1026,12 +1072,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,6 +1401,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,12 +1416,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5481,6 +5594,82 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6C58CF-637D-4243-A51C-BFAFCA298B8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1219200"/>
+          <a:ext cx="736600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5818,154 +6007,154 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="66"/>
       <c r="C3" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
       <c r="C5" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="66"/>
       <c r="C6" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="66"/>
       <c r="C7" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
       <c r="C8" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
       <c r="C9" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="66"/>
       <c r="C10" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
       <c r="C11" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
       <c r="C12" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="68"/>
       <c r="C13" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="C17" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="66"/>
       <c r="C23" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="66"/>
       <c r="C24" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5978,8 +6167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5998,28 +6187,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -6030,7 +6219,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="76">
         <v>0</v>
@@ -6039,13 +6228,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6054,10 +6243,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="75">
         <v>0</v>
@@ -6066,13 +6255,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="71" t="s">
         <v>125</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>126</v>
       </c>
       <c r="J3" s="90"/>
     </row>
@@ -6082,10 +6271,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="75">
         <v>1</v>
@@ -6094,13 +6283,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>88</v>
-      </c>
       <c r="I4" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="90"/>
     </row>
@@ -6109,10 +6298,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="86">
         <v>1</v>
@@ -6121,24 +6310,24 @@
         <v>13</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="93" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="76">
         <v>1</v>
@@ -6147,13 +6336,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -6164,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="74">
         <v>2</v>
@@ -6173,13 +6362,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -6190,7 +6379,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="75">
         <v>2</v>
@@ -6199,13 +6388,13 @@
         <v>12</v>
       </c>
       <c r="G8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>63</v>
-      </c>
       <c r="I8" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -6216,7 +6405,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="75">
         <v>3</v>
@@ -6225,13 +6414,13 @@
         <v>12</v>
       </c>
       <c r="G9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="52" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -6242,7 +6431,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="77">
         <v>2</v>
@@ -6250,24 +6439,24 @@
       <c r="F10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="97" t="s">
-        <v>100</v>
+      <c r="G10" s="94" t="s">
+        <v>99</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6294,47 +6483,47 @@
         <v>2</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6356,13 +6545,13 @@
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6400,132 +6589,132 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="66"/>
       <c r="B2" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="66"/>
       <c r="B3" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
       <c r="B4" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
       <c r="B6" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
       <c r="B7" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
       <c r="B8" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
       <c r="B9" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
       <c r="B10" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
       <c r="B11" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
       <c r="B12" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6535,6 +6724,119 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792D11B1-60EE-2441-9643-581666E8726D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="102">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="102">
+        <v>4.12</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="102">
+        <v>4.13</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="102">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="105">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D3D18-8C71-464C-A320-63E682CA5315}">
   <dimension ref="B1:I12"/>
   <sheetViews>
@@ -6570,11 +6872,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853DC44-AE59-9643-91D8-17576E317F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C49D5D-C599-A84F-8896-80EDAF6C4724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="760" windowWidth="21000" windowHeight="21420" activeTab="4" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 Priors" sheetId="4" r:id="rId1"/>
-    <sheet name="Table 2 Covariates" sheetId="3" r:id="rId2"/>
+    <sheet name="Table 1 Covariates" sheetId="3" r:id="rId1"/>
+    <sheet name="Table 2 Priors" sheetId="4" r:id="rId2"/>
     <sheet name="Supplement Table 1" sheetId="5" r:id="rId3"/>
     <sheet name="Supplement Table 2 " sheetId="6" r:id="rId4"/>
     <sheet name="Supplement Table 3" sheetId="7" r:id="rId5"/>
@@ -1135,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1407,24 +1407,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5989,181 +5997,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
-  <dimension ref="B1:D24"/>
-  <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="45"/>
-    <col min="2" max="2" width="15.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="45" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="66"/>
-      <c r="C2" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="66"/>
-      <c r="C3" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="66"/>
-      <c r="C4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="66"/>
-      <c r="C5" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
-      <c r="C6" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="66"/>
-      <c r="C7" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="66"/>
-      <c r="C8" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="66"/>
-      <c r="C10" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="66"/>
-      <c r="C11" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
-      <c r="C12" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C17" s="63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="66"/>
-      <c r="C23" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="66"/>
-      <c r="C24" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -6461,6 +6294,181 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
+  <dimension ref="B1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="45"/>
+    <col min="2" max="2" width="15.83203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="45" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="66"/>
+      <c r="C2" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="66"/>
+      <c r="C3" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="66"/>
+      <c r="C4" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="66"/>
+      <c r="C5" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="66"/>
+      <c r="C6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="66"/>
+      <c r="C7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="66"/>
+      <c r="C8" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="66"/>
+      <c r="C9" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="66"/>
+      <c r="C10" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="66"/>
+      <c r="C11" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="66"/>
+      <c r="C12" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="66"/>
+      <c r="C23" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="66"/>
+      <c r="C24" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6728,95 +6736,95 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="107" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="102">
+      <c r="C2" s="107">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="107">
         <v>4.12</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="99" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="102">
+      <c r="C4" s="107">
         <v>4.13</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="99" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="107">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="99" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="108">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="102" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6872,11 +6880,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">

--- a/writing/Manuscript_Tables.xlsx
+++ b/writing/Manuscript_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/genoasullaway/Documents/GitHub/AYK_prey/writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C49D5D-C599-A84F-8896-80EDAF6C4724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DCA37D-8717-D24A-8395-998B95C7FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="760" windowWidth="21000" windowHeight="21420" activeTab="4" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
+    <workbookView xWindow="16620" yWindow="9960" windowWidth="17760" windowHeight="12220" activeTab="3" xr2:uid="{15635B22-154F-5C4D-8D09-E55D0FC35932}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Covariates" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
   <si>
     <t>Stage</t>
   </si>
@@ -278,18 +278,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Log-normal SD for spawning abundance observation error</t>
-  </si>
-  <si>
-    <t>Log-normal SD for return abundance observation error</t>
-  </si>
-  <si>
-    <t>Log-normal SD for harvest abundance observation error</t>
-  </si>
-  <si>
-    <t>Log-normal SD for juvenile abundance observation error</t>
-  </si>
-  <si>
     <t>~Normal(0,1)</t>
   </si>
   <si>
@@ -302,12 +290,6 @@
     <t>~Normal(0,0.1)</t>
   </si>
   <si>
-    <t>Carrying capacity for juvenile stage</t>
-  </si>
-  <si>
-    <t>Carrying capacity for marine stage</t>
-  </si>
-  <si>
     <t>Log-normal standard deviation for instantaneous fishing mortality</t>
   </si>
   <si>
@@ -375,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">Table 1: Table of priors for each parameter used in the life cycle model. </t>
-  </si>
-  <si>
-    <t>~Normal(0,10)</t>
   </si>
   <si>
     <t>Dispersion parameter controlling deviations from mean age composition</t>
@@ -413,27 +392,9 @@
     <t xml:space="preserve">Table S1:Links to access public data sources listed in Table 2. </t>
   </si>
   <si>
-    <t>Mean river discharge (m/s) from Pilot Station, May-June 2002-2022</t>
-  </si>
-  <si>
-    <t>2002-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mean  NBS SST summed June - August, 2002-2022</t>
-  </si>
-  <si>
-    <t>Mean size at age trend from escapement projects that were consistently surveyed 2002-2022</t>
-  </si>
-  <si>
     <t>Annual total releases from Alaska, Japan, Korea and Russia, 2002-2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mean  E Aleutian SST summed November - March, 2002-2022</t>
-  </si>
-  <si>
-    <t>Annual index, 2002-2022</t>
-  </si>
-  <si>
     <t>Parameter Description</t>
   </si>
   <si>
@@ -443,27 +404,18 @@
     <t>95% CI</t>
   </si>
   <si>
-    <t>currently fixed:</t>
-  </si>
-  <si>
     <t>Log-normal age-specific fishing selectivity</t>
   </si>
   <si>
     <t>Parameter Notation</t>
   </si>
   <si>
-    <t xml:space="preserve">Insulating properties of snow </t>
-  </si>
-  <si>
     <t>Alaska Climate Research Center</t>
   </si>
   <si>
     <t>Raymond-Yakoubian J 2009, Jallen et al 2022</t>
   </si>
   <si>
-    <t>Monthly Mean Snow Depth (in), summed October - December, 2002-2022</t>
-  </si>
-  <si>
     <t>Snow Depth</t>
   </si>
   <si>
@@ -516,13 +468,161 @@
   </si>
   <si>
     <t xml:space="preserve">Data sources and related equations in the text. </t>
+  </si>
+  <si>
+    <t>Basal productivity for marine stage</t>
+  </si>
+  <si>
+    <t>Basal productivity for juvenile stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulating properties of snow enhances egg productivity during cold winters  </t>
+  </si>
+  <si>
+    <t>Mean river discharge (m/s) from Pilot Station, May-June 2003-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2003-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean  NBS SST summed June - August,  2003-2022</t>
+  </si>
+  <si>
+    <t>Annual index,  2004-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean  E Aleutian SST summed November - March, 2004-2023</t>
+  </si>
+  <si>
+    <t>Annual total releases from Alaska, Japan, Korea and Russia, 2004-2023</t>
+  </si>
+  <si>
+    <t>Mean size at age trend from escapement projects that were consistently surveyed 2002-2021</t>
+  </si>
+  <si>
+    <t>Monthly Mean Snow Depth (in), summed October - December, 2002-2021</t>
+  </si>
+  <si>
+    <t>[0.13, 0.99]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.97]</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.15]</t>
+  </si>
+  <si>
+    <t>[-5.92, -5.29]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.06], [0.43,0.99], [0.01, 0.04], [0.13, 0.29]</t>
+  </si>
+  <si>
+    <t>0.03,                   0.81,                        0.28,                   0.02</t>
+  </si>
+  <si>
+    <t>[-1.46,1.50],   [-3.30, -0.07], [-5.42,0.73],   [-3.87,0.76]</t>
+  </si>
+  <si>
+    <t>[0.13, 0.39]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.35]</t>
+  </si>
+  <si>
+    <t>[-0.31, -0.02]</t>
+  </si>
+  <si>
+    <t>[-0.30, 0.01]</t>
+  </si>
+  <si>
+    <t>[-0.09, 0.16]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.13]</t>
+  </si>
+  <si>
+    <t>[-0.09, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.24]</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.15]</t>
+  </si>
+  <si>
+    <t>Log carrying capacity for egg to juvenile stage</t>
+  </si>
+  <si>
+    <t>Log carrying capacity for juvenile to marine stage</t>
+  </si>
+  <si>
+    <t>[15.9,19.9]</t>
+  </si>
+  <si>
+    <t>[15.2,20.4]</t>
+  </si>
+  <si>
+    <t>~Normal(16,2)</t>
+  </si>
+  <si>
+    <t>~Normal(14,2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.53,                           </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.88,                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1.60,                             -1.25</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean age at maturity probability vector (Rows represent total ages 3-6)</t>
+  </si>
+  <si>
+    <t>Log-normal age-specific fishing selectivity (Rows represent total ages 3-6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -589,6 +689,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1135,7 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1415,6 +1522,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,14 +1544,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1456,640 +1606,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>201448</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="386516" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5501F1B1-754F-B949-ABAA-20F63875DDB6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="201448"/>
-              <a:ext cx="386516" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑑𝑢𝑙𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5501F1B1-754F-B949-ABAA-20F63875DDB6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="201448"/>
-              <a:ext cx="386516" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑎𝑑𝑢𝑙𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="450829" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922E1923-683D-5C46-9D7B-090DEF4ECF5B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="402897"/>
-              <a:ext cx="450829" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑟𝑒𝑡𝑢𝑟𝑛</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922E1923-683D-5C46-9D7B-090DEF4ECF5B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="402897"/>
-              <a:ext cx="450829" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑟𝑒𝑡𝑢𝑟𝑛</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="499945" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2576FB-A990-C445-B58C-7B2345360DC8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="604345"/>
-              <a:ext cx="499945" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>h𝑎𝑟𝑣𝑒𝑠𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2576FB-A990-C445-B58C-7B2345360DC8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="604345"/>
-              <a:ext cx="499945" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ℎ𝑎𝑟𝑣𝑒𝑠𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="520079" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8088D96C-47CB-D74F-95E4-728F04F5DD7E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="805793"/>
-              <a:ext cx="520079" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8088D96C-47CB-D74F-95E4-728F04F5DD7E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="805793"/>
-              <a:ext cx="520079" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>9199</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>190938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="246414" cy="176651"/>
@@ -2332,7 +1850,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17956</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>11385</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="100156" cy="173766"/>
@@ -2462,7 +1980,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="141256" cy="173766"/>
@@ -2620,7 +2138,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4816</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>7007</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="160621" cy="173702"/>
@@ -2778,7 +2296,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22334</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28904</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172035" cy="173702"/>
@@ -2933,7 +2451,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="106632" cy="173702"/>
@@ -3061,7 +2579,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>8829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="182614" cy="173702"/>
@@ -3216,7 +2734,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>43794</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>17224</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="128112" cy="173702"/>
@@ -3340,352 +2858,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44231</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7006</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="284886" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB458A6-E310-2A4A-B504-A464DB3641CB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="866428" y="1717468"/>
-              <a:ext cx="284886" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜂</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑗</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB458A6-E310-2A4A-B504-A464DB3641CB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="866428" y="1717468"/>
-              <a:ext cx="284886" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜂_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠=𝑗)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25838</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>198820</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="331053" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D85B6-F39C-0348-AC5C-801AB8E792F4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="848035" y="1909282"/>
-              <a:ext cx="331053" cy="173702"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜂</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>=</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑚</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07D85B6-F39C-0348-AC5C-801AB8E792F4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="848035" y="1909282"/>
-              <a:ext cx="331053" cy="173702"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜂_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠=𝑚)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3694,644 +2866,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>201448</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="386516" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB0689C-ED54-2546-A7EA-EA20726B5A5E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="201448"/>
-              <a:ext cx="386516" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑑𝑢𝑙𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB0689C-ED54-2546-A7EA-EA20726B5A5E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="201448"/>
-              <a:ext cx="386516" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑎𝑑𝑢𝑙𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="450829" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72F93A-0663-F545-8F08-FAC61CCBAF48}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="647700"/>
-              <a:ext cx="450829" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑟𝑒𝑡𝑢𝑟𝑛</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72F93A-0663-F545-8F08-FAC61CCBAF48}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="647700"/>
-              <a:ext cx="450829" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑟𝑒𝑡𝑢𝑟𝑛</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="499945" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE55-8E5D-BD4B-A4B9-DC7657FE8870}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="863600"/>
-              <a:ext cx="499945" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>h𝑎𝑟𝑣𝑒𝑠𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE55-8E5D-BD4B-A4B9-DC7657FE8870}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="863600"/>
-              <a:ext cx="499945" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ℎ𝑎𝑟𝑣𝑒𝑠𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="520079" cy="182871"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB4BB82-EC19-ED4B-890D-593BD772252D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="1079500"/>
-              <a:ext cx="520079" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB4BB82-EC19-ED4B-890D-593BD772252D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="825500" y="1079500"/>
-              <a:ext cx="520079" cy="182871"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>17956</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11385</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="100156" cy="173766"/>
@@ -4461,19 +2997,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2628</xdr:rowOff>
+      <xdr:colOff>4816</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7007</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="141256" cy="173766"/>
+    <xdr:ext cx="333553" cy="173702"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
+            <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E07D6-CD75-8B47-A2FD-7FAC4A1EEFAB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFD511C-CB54-DA44-AA1C-0C9BF6A45A1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4481,8 +3017,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="834700" y="2161628"/>
-              <a:ext cx="141256" cy="173766"/>
+              <a:off x="4816" y="2394607"/>
+              <a:ext cx="333553" cy="173702"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4531,165 +3067,6 @@
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝜍</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E07D6-CD75-8B47-A2FD-7FAC4A1EEFAB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="834700" y="2161628"/>
-              <a:ext cx="141256" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜍_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4816</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7007</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="160621" cy="173702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFD511C-CB54-DA44-AA1C-0C9BF6A45A1F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="830316" y="1302407"/>
-              <a:ext cx="160621" cy="173702"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
                           <m:t>𝛽</m:t>
                         </m:r>
                       </m:e>
@@ -4700,6 +3077,20 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -4725,8 +3116,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="830316" y="1302407"/>
-              <a:ext cx="160621" cy="173702"/>
+              <a:off x="4816" y="2394607"/>
+              <a:ext cx="333553" cy="173702"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4759,14 +3150,14 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝛽_</a:t>
+                <a:t>𝛽_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑠</a:t>
+                <a:t>𝑠=𝑚)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -4780,7 +3171,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22334</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>28904</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172035" cy="173702"/>
@@ -4935,9 +3326,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2626</xdr:rowOff>
+      <xdr:colOff>11503</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12786</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="106632" cy="173702"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -4955,7 +3346,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="857323" y="2593426"/>
+              <a:off x="11503" y="7988386"/>
               <a:ext cx="106632" cy="173702"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5018,7 +3409,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="857323" y="2593426"/>
+              <a:off x="11503" y="7988386"/>
               <a:ext cx="106632" cy="173702"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5065,7 +3456,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>31823</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>8829</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="182614" cy="173702"/>
@@ -5221,7 +3612,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>43794</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>17224</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="128112" cy="173702"/>
@@ -5350,10 +3741,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="246414" cy="176651"/>
+    <xdr:ext cx="610936" cy="176651"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -5369,8 +3760,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2794000"/>
-              <a:ext cx="246414" cy="176651"/>
+              <a:off x="0" y="2802363"/>
+              <a:ext cx="610936" cy="176651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5484,16 +3875,31 @@
                       <m:rPr>
                         <m:nor/>
                       </m:rPr>
-                      <a:rPr lang="en-US" sz="1100">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Size</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -5517,8 +3923,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2794000"/>
-              <a:ext cx="246414" cy="176651"/>
+              <a:off x="0" y="2802363"/>
+              <a:ext cx="610936" cy="176651"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5559,16 +3965,308 @@
                 <a:t>θ_(s,c)</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Size"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1125244" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28901B06-A5F3-0343-9499-5F1CED09E050}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3236951"/>
+              <a:ext cx="1125244" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Snow</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Depth</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28901B06-A5F3-0343-9499-5F1CED09E050}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3236951"/>
+              <a:ext cx="1125244" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Snow Depth</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -5580,7 +4278,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" </a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -5593,6 +4291,2505 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1596912" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E786A63-156D-3849-A1B6-1234AF094683}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3422805"/>
+              <a:ext cx="1596912" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Pollock</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Recruitment</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E786A63-156D-3849-A1B6-1234AF094683}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3422805"/>
+              <a:ext cx="1596912" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Pollock Recruitment"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="918136" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1C9E8F-ACF9-7F44-9A2F-6E6AA5F94A83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4427901"/>
+              <a:ext cx="918136" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>NBS</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>CDD</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1C9E8F-ACF9-7F44-9A2F-6E6AA5F94A83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4427901"/>
+              <a:ext cx="918136" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= NBS CDD"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1269578" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB90B6E-049C-5841-BB92-4A602A652C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4622800"/>
+              <a:ext cx="1269578" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Fullness</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Index</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB90B6E-049C-5841-BB92-4A602A652C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4622800"/>
+              <a:ext cx="1269578" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Fullness Index "</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1173335" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F359704E-DC62-9A41-B15E-32AB5838B462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4826000"/>
+              <a:ext cx="1173335" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Aleutian</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>CDD</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F359704E-DC62-9A41-B15E-32AB5838B462}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="4826000"/>
+              <a:ext cx="1173335" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Aleutian CDD"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1304011" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A12E55-7098-5C49-A7F2-10DC08B956A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5029200"/>
+              <a:ext cx="1304011" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Chum</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Hatchery</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A12E55-7098-5C49-A7F2-10DC08B956A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5029200"/>
+              <a:ext cx="1304011" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Chum Hatchery"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1223540" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3481314D-82F0-6247-B9AB-254AF24AC54D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5232400"/>
+              <a:ext cx="1223540" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Pink</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Hatchery</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3481314D-82F0-6247-B9AB-254AF24AC54D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5232400"/>
+              <a:ext cx="1223540" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Pink Hatchery"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1439946" cy="176651"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B36B4C-772A-1A41-850D-3B019A8BD839}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3895183"/>
+              <a:ext cx="1439946" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>θ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>s</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>c</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Yukon</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>River</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>Flow</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B36B4C-772A-1A41-850D-3B019A8BD839}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3895183"/>
+              <a:ext cx="1439946" cy="176651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>θ_(s,c)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "= Yukon River Flow"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4816</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7007</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="287386" cy="182871"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF29C7BF-FC74-754D-8780-016FB362B2CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4816" y="2160927"/>
+              <a:ext cx="287386" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛽</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF29C7BF-FC74-754D-8780-016FB362B2CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4816" y="2160927"/>
+              <a:ext cx="287386" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛽_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠=𝑗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2997</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="660502" cy="182871"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E756816A-9971-73D1-3630-2F3EF17BEB92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="10851508"/>
+              <a:ext cx="660502" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E756816A-9971-73D1-3630-2F3EF17BEB92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="10851508"/>
+              <a:ext cx="660502" cy="182871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠=𝑗𝑢𝑣𝑒𝑛𝑖𝑙𝑒)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6136</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="610039" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0D1554-1690-444C-B763-15D3975AA76D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6136" y="11075254"/>
+              <a:ext cx="610039" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑟𝑖𝑛𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0D1554-1690-444C-B763-15D3975AA76D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6136" y="11075254"/>
+              <a:ext cx="610039" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠=𝑚𝑎𝑟𝑖𝑛𝑒)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -6000,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C922C39-C49D-8D4D-BCBE-7247337ED328}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6020,7 +7217,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>46</v>
@@ -6029,7 +7226,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>4</v>
@@ -6052,7 +7249,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E2" s="76">
         <v>0</v>
@@ -6061,7 +7258,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>49</v>
@@ -6070,16 +7267,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E3" s="75">
         <v>0</v>
@@ -6088,17 +7285,17 @@
         <v>13</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J3" s="90"/>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="51" t="s">
         <v>1</v>
@@ -6107,7 +7304,7 @@
         <v>67</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E4" s="75">
         <v>1</v>
@@ -6116,17 +7313,17 @@
         <v>12</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I4" s="71" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="84" t="s">
         <v>30</v>
       </c>
@@ -6134,7 +7331,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E5" s="86">
         <v>1</v>
@@ -6143,10 +7340,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I5" s="83" t="s">
         <v>57</v>
@@ -6160,7 +7357,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E6" s="76">
         <v>1</v>
@@ -6169,10 +7366,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I6" s="70" t="s">
         <v>59</v>
@@ -6186,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E7" s="74">
         <v>2</v>
@@ -6201,7 +7398,7 @@
         <v>62</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -6212,7 +7409,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E8" s="75">
         <v>2</v>
@@ -6238,10 +7435,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E9" s="75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="79" t="s">
         <v>12</v>
@@ -6264,16 +7461,16 @@
         <v>27</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E10" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>65</v>
@@ -6289,7 +7486,7 @@
     </row>
     <row r="16" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6299,10 +7496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6D1E8C-B800-DB41-95B4-3695A974BBA7}">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6325,146 +7522,93 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="66"/>
       <c r="C3" s="59" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="59" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
-      <c r="C5" s="59" t="s">
-        <v>75</v>
+      <c r="C5" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="66"/>
+      <c r="C6" s="60" t="s">
         <v>76</v>
       </c>
+      <c r="D6" s="67" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
-      <c r="C6" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="66"/>
-      <c r="C7" s="59" t="s">
-        <v>84</v>
+      <c r="C7" s="60" t="s">
+        <v>100</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
-      <c r="C8" s="59" t="s">
-        <v>122</v>
+      <c r="C8" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="60" t="s">
-        <v>83</v>
+    <row r="9" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="68"/>
+      <c r="C9" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="66"/>
-      <c r="C10" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="66"/>
-      <c r="C11" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
-      <c r="C12" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>77</v>
+      <c r="C12" s="62" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>77</v>
+    <row r="13" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C13" s="63" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="62" t="s">
-        <v>109</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="57"/>
     </row>
-    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="C17" s="63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="66"/>
-      <c r="C23" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="66"/>
-      <c r="C24" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>105</v>
-      </c>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6491,12 +7635,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>51</v>
@@ -6504,10 +7648,10 @@
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -6520,7 +7664,7 @@
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>53</v>
@@ -6528,7 +7672,7 @@
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>54</v>
@@ -6559,7 +7703,7 @@
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6580,149 +7724,331 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D8EA89-DADA-994F-B9EB-DFFAA747018D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="117" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="15" style="121" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="122" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="118" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="111"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:8" s="125" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="124" t="s">
         <v>70</v>
       </c>
+      <c r="F1" s="121"/>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="106"/>
+      <c r="B2" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="119">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="106"/>
+      <c r="B3" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="119">
+        <v>0.51</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="106"/>
+      <c r="B4" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="119">
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="92"/>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="106"/>
+      <c r="B5" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="119">
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="106"/>
+      <c r="B6" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="119">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="106"/>
+      <c r="B7" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="92"/>
+    </row>
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="106"/>
+      <c r="B8" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="119">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="92"/>
+    </row>
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="106"/>
+      <c r="B9" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="119">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="92"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="106"/>
+      <c r="B10" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="119">
+        <v>-0.13</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="92"/>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="106"/>
+      <c r="B11" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="119">
+        <v>-0.12</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="92"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="106"/>
+      <c r="B12" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="119">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="92"/>
+    </row>
+    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="106"/>
+      <c r="B13" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="H13" s="92"/>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="59" t="s">
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="106"/>
+      <c r="B14" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="119">
+        <v>-0.04</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="106"/>
+      <c r="B15" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="119">
+        <v>-5.61</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="106"/>
+      <c r="B16" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="H16" s="92"/>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>76</v>
-      </c>
+    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="106"/>
+      <c r="B17" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="119">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="92"/>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>76</v>
-      </c>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="115"/>
+      <c r="B18" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="119">
+        <v>17.27</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="92"/>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>77</v>
-      </c>
+    <row r="19" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="120">
+        <v>17.57</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="92"/>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>129</v>
+    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="B23" s="113" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6735,26 +8061,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792D11B1-60EE-2441-9643-581666E8726D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="104" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="106" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>114</v>
       </c>
       <c r="D1" s="97" t="s">
         <v>3</v>
@@ -6762,80 +8088,80 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="98" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="107">
+        <v>127</v>
+      </c>
+      <c r="C2" s="104">
         <v>4.1100000000000003</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="98"/>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="107">
+        <v>122</v>
+      </c>
+      <c r="C3" s="104">
         <v>4.12</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="98" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="107">
+        <v>126</v>
+      </c>
+      <c r="C4" s="104">
         <v>4.13</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="98" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="107">
+        <v>124</v>
+      </c>
+      <c r="C5" s="104">
         <v>4.1399999999999997</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="100" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="108">
+        <v>123</v>
+      </c>
+      <c r="C6" s="105">
         <v>4.1500000000000004</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6880,11 +8206,11 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
